--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
@@ -534,46 +534,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6836936666666666</v>
+        <v>0.1887043333333333</v>
       </c>
       <c r="H2">
-        <v>2.051081</v>
+        <v>0.566113</v>
       </c>
       <c r="I2">
-        <v>0.07240868516880868</v>
+        <v>0.02109097403787168</v>
       </c>
       <c r="J2">
-        <v>0.07240868516880866</v>
+        <v>0.02109097403787168</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>13.57958433333333</v>
+        <v>28.22405966666667</v>
       </c>
       <c r="N2">
-        <v>40.738753</v>
+        <v>84.672179</v>
       </c>
       <c r="O2">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="P2">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="Q2">
-        <v>9.28427580466589</v>
+        <v>5.326002363358556</v>
       </c>
       <c r="R2">
-        <v>83.558482241993</v>
+        <v>47.934021270227</v>
       </c>
       <c r="S2">
-        <v>0.01657940222274804</v>
+        <v>0.008049472486607532</v>
       </c>
       <c r="T2">
-        <v>0.01657940222274803</v>
+        <v>0.008049472486607529</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6836936666666666</v>
+        <v>0.1887043333333333</v>
       </c>
       <c r="H3">
-        <v>2.051081</v>
+        <v>0.566113</v>
       </c>
       <c r="I3">
-        <v>0.07240868516880868</v>
+        <v>0.02109097403787168</v>
       </c>
       <c r="J3">
-        <v>0.07240868516880866</v>
+        <v>0.02109097403787168</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>19.768727</v>
       </c>
       <c r="N3">
-        <v>59.30618100000001</v>
+        <v>59.306181</v>
       </c>
       <c r="O3">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="P3">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="Q3">
-        <v>13.51575344796233</v>
+        <v>3.730444449383667</v>
       </c>
       <c r="R3">
-        <v>121.641781031661</v>
+        <v>33.57400004445299</v>
       </c>
       <c r="S3">
-        <v>0.02413576647999258</v>
+        <v>0.005638020396820853</v>
       </c>
       <c r="T3">
-        <v>0.02413576647999258</v>
+        <v>0.005638020396820851</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6836936666666666</v>
+        <v>0.1887043333333333</v>
       </c>
       <c r="H4">
-        <v>2.051081</v>
+        <v>0.566113</v>
       </c>
       <c r="I4">
-        <v>0.07240868516880868</v>
+        <v>0.02109097403787168</v>
       </c>
       <c r="J4">
-        <v>0.07240868516880866</v>
+        <v>0.02109097403787168</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.95900466666666</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N4">
-        <v>77.87701399999999</v>
+        <v>77.877014</v>
       </c>
       <c r="O4">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="P4">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="Q4">
-        <v>17.74800708357044</v>
+        <v>4.898576669620223</v>
       </c>
       <c r="R4">
-        <v>159.732063752134</v>
+        <v>44.087190026582</v>
       </c>
       <c r="S4">
-        <v>0.03169351646606806</v>
+        <v>0.007403481154443298</v>
       </c>
       <c r="T4">
-        <v>0.03169351646606805</v>
+        <v>0.007403481154443295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.861699999999999</v>
+        <v>7.8617</v>
       </c>
       <c r="H5">
         <v>23.5851</v>
       </c>
       <c r="I5">
-        <v>0.8326175712099469</v>
+        <v>0.8786809908633213</v>
       </c>
       <c r="J5">
-        <v>0.8326175712099468</v>
+        <v>0.8786809908633211</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>13.57958433333333</v>
+        <v>28.22405966666667</v>
       </c>
       <c r="N5">
-        <v>40.738753</v>
+        <v>84.672179</v>
       </c>
       <c r="O5">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="P5">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="Q5">
-        <v>106.7586181533667</v>
+        <v>221.8890898814333</v>
       </c>
       <c r="R5">
-        <v>960.8275633802999</v>
+        <v>1997.0018089329</v>
       </c>
       <c r="S5">
-        <v>0.1906442794622614</v>
+        <v>0.3353528598422705</v>
       </c>
       <c r="T5">
-        <v>0.1906442794622614</v>
+        <v>0.3353528598422704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.861699999999999</v>
+        <v>7.8617</v>
       </c>
       <c r="H6">
         <v>23.5851</v>
       </c>
       <c r="I6">
-        <v>0.8326175712099469</v>
+        <v>0.8786809908633213</v>
       </c>
       <c r="J6">
-        <v>0.8326175712099468</v>
+        <v>0.8786809908633211</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>19.768727</v>
       </c>
       <c r="N6">
-        <v>59.30618100000001</v>
+        <v>59.306181</v>
       </c>
       <c r="O6">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="P6">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="Q6">
         <v>155.4158010559</v>
@@ -818,10 +818,10 @@
         <v>1398.7422095031</v>
       </c>
       <c r="S6">
-        <v>0.2775338789678579</v>
+        <v>0.2348882199508923</v>
       </c>
       <c r="T6">
-        <v>0.2775338789678579</v>
+        <v>0.2348882199508922</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.861699999999999</v>
+        <v>7.8617</v>
       </c>
       <c r="H7">
         <v>23.5851</v>
       </c>
       <c r="I7">
-        <v>0.8326175712099469</v>
+        <v>0.8786809908633213</v>
       </c>
       <c r="J7">
-        <v>0.8326175712099468</v>
+        <v>0.8786809908633211</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.95900466666666</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N7">
-        <v>77.87701399999999</v>
+        <v>77.877014</v>
       </c>
       <c r="O7">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="P7">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="Q7">
         <v>204.0819069879333</v>
@@ -880,10 +880,10 @@
         <v>1836.7371628914</v>
       </c>
       <c r="S7">
-        <v>0.3644394127798276</v>
+        <v>0.3084399110701585</v>
       </c>
       <c r="T7">
-        <v>0.3644394127798276</v>
+        <v>0.3084399110701584</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>2.690269</v>
       </c>
       <c r="I8">
-        <v>0.09497374362124447</v>
+        <v>0.1002280350988072</v>
       </c>
       <c r="J8">
-        <v>0.09497374362124446</v>
+        <v>0.1002280350988071</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>13.57958433333333</v>
+        <v>28.22405966666667</v>
       </c>
       <c r="N8">
-        <v>40.738753</v>
+        <v>84.672179</v>
       </c>
       <c r="O8">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="P8">
-        <v>0.2289698008477291</v>
+        <v>0.3816548478108986</v>
       </c>
       <c r="Q8">
-        <v>12.17757825495078</v>
+        <v>25.31010425846122</v>
       </c>
       <c r="R8">
-        <v>109.598204294557</v>
+        <v>227.790938326151</v>
       </c>
       <c r="S8">
-        <v>0.02174611916271962</v>
+        <v>0.03825251548202065</v>
       </c>
       <c r="T8">
-        <v>0.02174611916271962</v>
+        <v>0.03825251548202064</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>2.690269</v>
       </c>
       <c r="I9">
-        <v>0.09497374362124447</v>
+        <v>0.1002280350988072</v>
       </c>
       <c r="J9">
-        <v>0.09497374362124446</v>
+        <v>0.1002280350988071</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>19.768727</v>
       </c>
       <c r="N9">
-        <v>59.30618100000001</v>
+        <v>59.306181</v>
       </c>
       <c r="O9">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="P9">
-        <v>0.3333269541315949</v>
+        <v>0.2673191094302723</v>
       </c>
       <c r="Q9">
-        <v>17.72773113918767</v>
+        <v>17.72773113918766</v>
       </c>
       <c r="R9">
         <v>159.549580252689</v>
       </c>
       <c r="S9">
-        <v>0.0316573086837444</v>
+        <v>0.0267928690825592</v>
       </c>
       <c r="T9">
-        <v>0.0316573086837444</v>
+        <v>0.0267928690825592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>2.690269</v>
       </c>
       <c r="I10">
-        <v>0.09497374362124447</v>
+        <v>0.1002280350988072</v>
       </c>
       <c r="J10">
-        <v>0.09497374362124446</v>
+        <v>0.1002280350988071</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>25.95900466666666</v>
+        <v>25.95900466666667</v>
       </c>
       <c r="N10">
-        <v>77.87701399999999</v>
+        <v>77.877014</v>
       </c>
       <c r="O10">
-        <v>0.437703245020676</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="P10">
-        <v>0.4377032450206761</v>
+        <v>0.351026042758829</v>
       </c>
       <c r="Q10">
-        <v>23.27890184186288</v>
+        <v>23.27890184186289</v>
       </c>
       <c r="R10">
         <v>209.510116576766</v>
       </c>
       <c r="S10">
-        <v>0.04157031577478044</v>
+        <v>0.0351826505342273</v>
       </c>
       <c r="T10">
-        <v>0.04157031577478044</v>
+        <v>0.03518265053422728</v>
       </c>
     </row>
   </sheetData>
